--- a/output/exp22/stats_duration.xlsx
+++ b/output/exp22/stats_duration.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I844141\Documents\Unisinos\2019-2\TCCII\workspace\TCC-II\output\exp22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8AA367B4-A344-4A19-87E8-60C95E7CA4B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36BC8F7-0266-474E-9340-A1E31D60539C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats_duration" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>exp1</t>
   </si>
@@ -77,12 +78,24 @@
   </si>
   <si>
     <t>adapt_veh_n_thp_0.3</t>
+  </si>
+  <si>
+    <t>Inflection Point</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1057,11 +1070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,4 +1869,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8E76F0-A7A6-49C5-8C5F-0481B5BD4F7D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>190.03410590478299</v>
+      </c>
+      <c r="C3" s="3">
+        <v>103.496858418249</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>185.92988511072599</v>
+      </c>
+      <c r="C4" s="3">
+        <v>95.630275952380998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>191.87343638815099</v>
+      </c>
+      <c r="C5" s="3">
+        <v>103.38218902750999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>187.68055970450601</v>
+      </c>
+      <c r="C6" s="3">
+        <v>99.491000802912296</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>193.908455238252</v>
+      </c>
+      <c r="C7" s="3">
+        <v>105.499931476607</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>188.623540051898</v>
+      </c>
+      <c r="C8" s="3">
+        <v>97.808560801865596</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>192.90906587231299</v>
+      </c>
+      <c r="C9" s="3">
+        <v>108.025962291548</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>191.53219442723201</v>
+      </c>
+      <c r="C10" s="8">
+        <v>97.634096276095207</v>
+      </c>
+      <c r="D10" s="9">
+        <v>922</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:D10">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>B3=MIN(B$3:B$10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>